--- a/public/finansijski_izvestaj.xlsx
+++ b/public/finansijski_izvestaj.xlsx
@@ -79,12 +79,14 @@
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -380,33 +382,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27.7109375" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18" style="4" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="D6" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
